--- a/gradeSort/cj.xlsx
+++ b/gradeSort/cj.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CJ" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sheet_z" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -15,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="544">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="565">
   <si>
     <t>学分</t>
   </si>
@@ -1647,6 +1648,69 @@
   </si>
   <si>
     <t>99.89</t>
+  </si>
+  <si>
+    <t>162.5</t>
+  </si>
+  <si>
+    <t>166.5</t>
+  </si>
+  <si>
+    <t>151.5</t>
+  </si>
+  <si>
+    <t>167.0</t>
+  </si>
+  <si>
+    <t>160.5</t>
+  </si>
+  <si>
+    <t>163.5</t>
+  </si>
+  <si>
+    <t>161.5</t>
+  </si>
+  <si>
+    <t>165.5</t>
+  </si>
+  <si>
+    <t>159.5</t>
+  </si>
+  <si>
+    <t>125.0</t>
+  </si>
+  <si>
+    <t>169.5</t>
+  </si>
+  <si>
+    <t>167.5</t>
+  </si>
+  <si>
+    <t>158.5</t>
+  </si>
+  <si>
+    <t>165.0</t>
+  </si>
+  <si>
+    <t>127.0</t>
+  </si>
+  <si>
+    <t>168.0</t>
+  </si>
+  <si>
+    <t>163.0</t>
+  </si>
+  <si>
+    <t>156.5</t>
+  </si>
+  <si>
+    <t>148.5</t>
+  </si>
+  <si>
+    <t>143.5</t>
+  </si>
+  <si>
+    <t>171.0</t>
   </si>
 </sst>
 </file>
@@ -1982,7 +2046,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EK39"/>
+  <dimension ref="A1:EL40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1990,7 +2054,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:141">
+    <row r="1" spans="1:142">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -2412,7 +2476,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:141">
+    <row r="2" spans="1:142">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -2837,7 +2901,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="3" spans="1:141">
+    <row r="3" spans="1:142">
       <c r="A3" t="s">
         <v>153</v>
       </c>
@@ -3058,7 +3122,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="4" spans="1:141">
+    <row r="4" spans="1:142">
       <c r="A4" t="s">
         <v>191</v>
       </c>
@@ -3273,7 +3337,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="5" spans="1:141">
+    <row r="5" spans="1:142">
       <c r="A5" t="s">
         <v>206</v>
       </c>
@@ -3491,7 +3555,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="6" spans="1:141">
+    <row r="6" spans="1:142">
       <c r="A6" t="s">
         <v>220</v>
       </c>
@@ -3706,7 +3770,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="7" spans="1:141">
+    <row r="7" spans="1:142">
       <c r="A7" t="s">
         <v>235</v>
       </c>
@@ -3717,7 +3781,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="8" spans="1:141">
+    <row r="8" spans="1:142">
       <c r="A8" t="s">
         <v>238</v>
       </c>
@@ -3923,7 +3987,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="9" spans="1:141">
+    <row r="9" spans="1:142">
       <c r="A9" t="s">
         <v>252</v>
       </c>
@@ -4132,7 +4196,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="10" spans="1:141">
+    <row r="10" spans="1:142">
       <c r="A10" t="s">
         <v>260</v>
       </c>
@@ -4341,7 +4405,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="11" spans="1:141">
+    <row r="11" spans="1:142">
       <c r="A11" t="s">
         <v>267</v>
       </c>
@@ -4550,7 +4614,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="12" spans="1:141">
+    <row r="12" spans="1:142">
       <c r="A12" t="s">
         <v>277</v>
       </c>
@@ -4759,7 +4823,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="13" spans="1:141">
+    <row r="13" spans="1:142">
       <c r="A13" t="s">
         <v>285</v>
       </c>
@@ -4965,7 +5029,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="14" spans="1:141">
+    <row r="14" spans="1:142">
       <c r="A14" t="s">
         <v>295</v>
       </c>
@@ -5177,7 +5241,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="15" spans="1:141">
+    <row r="15" spans="1:142">
       <c r="A15" t="s">
         <v>302</v>
       </c>
@@ -5389,7 +5453,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="16" spans="1:141">
+    <row r="16" spans="1:142">
       <c r="A16" t="s">
         <v>310</v>
       </c>
@@ -5598,7 +5662,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="17" spans="1:141">
+    <row r="17" spans="1:142">
       <c r="A17" t="s">
         <v>318</v>
       </c>
@@ -5813,7 +5877,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="18" spans="1:141">
+    <row r="18" spans="1:142">
       <c r="A18" t="s">
         <v>330</v>
       </c>
@@ -6025,7 +6089,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="19" spans="1:141">
+    <row r="19" spans="1:142">
       <c r="A19" t="s">
         <v>340</v>
       </c>
@@ -6237,7 +6301,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="20" spans="1:141">
+    <row r="20" spans="1:142">
       <c r="A20" t="s">
         <v>356</v>
       </c>
@@ -6455,7 +6519,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="21" spans="1:141">
+    <row r="21" spans="1:142">
       <c r="A21" t="s">
         <v>367</v>
       </c>
@@ -6673,7 +6737,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="22" spans="1:141">
+    <row r="22" spans="1:142">
       <c r="A22" t="s">
         <v>376</v>
       </c>
@@ -6888,7 +6952,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="23" spans="1:141">
+    <row r="23" spans="1:142">
       <c r="A23" t="s">
         <v>388</v>
       </c>
@@ -7103,7 +7167,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="24" spans="1:141">
+    <row r="24" spans="1:142">
       <c r="A24" t="s">
         <v>396</v>
       </c>
@@ -7318,7 +7382,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="25" spans="1:141">
+    <row r="25" spans="1:142">
       <c r="A25" t="s">
         <v>409</v>
       </c>
@@ -7533,7 +7597,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="26" spans="1:141">
+    <row r="26" spans="1:142">
       <c r="A26" t="s">
         <v>418</v>
       </c>
@@ -7748,7 +7812,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="27" spans="1:141">
+    <row r="27" spans="1:142">
       <c r="A27" t="s">
         <v>431</v>
       </c>
@@ -7966,7 +8030,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="28" spans="1:141">
+    <row r="28" spans="1:142">
       <c r="A28" t="s">
         <v>443</v>
       </c>
@@ -8181,7 +8245,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="29" spans="1:141">
+    <row r="29" spans="1:142">
       <c r="A29" t="s">
         <v>452</v>
       </c>
@@ -8396,7 +8460,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="30" spans="1:141">
+    <row r="30" spans="1:142">
       <c r="A30" t="s">
         <v>467</v>
       </c>
@@ -8611,7 +8675,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="31" spans="1:141">
+    <row r="31" spans="1:142">
       <c r="A31" t="s">
         <v>476</v>
       </c>
@@ -8826,7 +8890,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="32" spans="1:141">
+    <row r="32" spans="1:142">
       <c r="A32" t="s">
         <v>483</v>
       </c>
@@ -9035,7 +9099,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="33" spans="1:141">
+    <row r="33" spans="1:142">
       <c r="A33" t="s">
         <v>491</v>
       </c>
@@ -9250,7 +9314,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="34" spans="1:141">
+    <row r="34" spans="1:142">
       <c r="A34" t="s">
         <v>500</v>
       </c>
@@ -9459,7 +9523,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="35" spans="1:141">
+    <row r="35" spans="1:142">
       <c r="A35" t="s">
         <v>507</v>
       </c>
@@ -9674,7 +9738,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="36" spans="1:141">
+    <row r="36" spans="1:142">
       <c r="A36" t="s">
         <v>518</v>
       </c>
@@ -9892,7 +9956,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="37" spans="1:141">
+    <row r="37" spans="1:142">
       <c r="A37" t="s">
         <v>525</v>
       </c>
@@ -10110,7 +10174,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="38" spans="1:141">
+    <row r="38" spans="1:142">
       <c r="A38" t="s">
         <v>532</v>
       </c>
@@ -10325,7 +10389,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="39" spans="1:141">
+    <row r="39" spans="1:142">
       <c r="A39" t="s">
         <v>541</v>
       </c>
@@ -10535,6 +10599,322 @@
       </c>
       <c r="DN39" t="s">
         <v>316</v>
+      </c>
+    </row>
+    <row r="40" spans="1:142"/>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C2" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C3" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>220</v>
+      </c>
+      <c r="C4" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>235</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>238</v>
+      </c>
+      <c r="C6" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>252</v>
+      </c>
+      <c r="C7" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>260</v>
+      </c>
+      <c r="C8" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>267</v>
+      </c>
+      <c r="C9" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>277</v>
+      </c>
+      <c r="C10" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>285</v>
+      </c>
+      <c r="C11" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>295</v>
+      </c>
+      <c r="C12" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>302</v>
+      </c>
+      <c r="C13" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>310</v>
+      </c>
+      <c r="C14" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>318</v>
+      </c>
+      <c r="C15" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>330</v>
+      </c>
+      <c r="C16" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>340</v>
+      </c>
+      <c r="C17" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>356</v>
+      </c>
+      <c r="C18" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>367</v>
+      </c>
+      <c r="C19" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>376</v>
+      </c>
+      <c r="C20" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>388</v>
+      </c>
+      <c r="C21" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>396</v>
+      </c>
+      <c r="C22" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>409</v>
+      </c>
+      <c r="C23" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>418</v>
+      </c>
+      <c r="C24" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>431</v>
+      </c>
+      <c r="C25" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>443</v>
+      </c>
+      <c r="C26" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>452</v>
+      </c>
+      <c r="C27" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>467</v>
+      </c>
+      <c r="C28" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>476</v>
+      </c>
+      <c r="C29" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>483</v>
+      </c>
+      <c r="C30" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>491</v>
+      </c>
+      <c r="C31" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>500</v>
+      </c>
+      <c r="C32" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>507</v>
+      </c>
+      <c r="C33" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>518</v>
+      </c>
+      <c r="C34" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>525</v>
+      </c>
+      <c r="C35" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>532</v>
+      </c>
+      <c r="C36" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>541</v>
+      </c>
+      <c r="C37" t="s">
+        <v>551</v>
       </c>
     </row>
   </sheetData>

--- a/gradeSort/cj.xlsx
+++ b/gradeSort/cj.xlsx
@@ -2,7 +2,6 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
     <workbookView activeTab="0"/>
   </bookViews>
@@ -16,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="565">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="627">
   <si>
     <t>学分</t>
   </si>
@@ -1650,67 +1649,253 @@
     <t>99.89</t>
   </si>
   <si>
+    <t>总通过学分</t>
+  </si>
+  <si>
+    <t>未通过学分</t>
+  </si>
+  <si>
+    <t>总学分</t>
+  </si>
+  <si>
+    <t>平均学分绩点（含公共选修课）</t>
+  </si>
+  <si>
+    <t>平均学分绩点（不含公共选修课）</t>
+  </si>
+  <si>
+    <t>未通过课程</t>
+  </si>
+  <si>
     <t>162.5</t>
   </si>
   <si>
+    <t>11.0</t>
+  </si>
+  <si>
+    <t>173.5</t>
+  </si>
+  <si>
+    <t>2.12372334294</t>
+  </si>
+  <si>
     <t>166.5</t>
   </si>
   <si>
+    <t>2.39334534535</t>
+  </si>
+  <si>
     <t>151.5</t>
   </si>
   <si>
+    <t>16.0</t>
+  </si>
+  <si>
+    <t>167.5</t>
+  </si>
+  <si>
+    <t>1.64665671642</t>
+  </si>
+  <si>
     <t>167.0</t>
   </si>
   <si>
+    <t>2.86244011976</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
     <t>160.5</t>
   </si>
   <si>
+    <t>2.47988785047</t>
+  </si>
+  <si>
     <t>163.5</t>
   </si>
   <si>
+    <t>3.24886850153</t>
+  </si>
+  <si>
+    <t>3.11383486239</t>
+  </si>
+  <si>
+    <t>3.3829969419</t>
+  </si>
+  <si>
+    <t>2.738617737</t>
+  </si>
+  <si>
     <t>161.5</t>
   </si>
   <si>
+    <t>4.12370278638</t>
+  </si>
+  <si>
     <t>165.5</t>
   </si>
   <si>
+    <t>3.38627190332</t>
+  </si>
+  <si>
+    <t>3.50448648649</t>
+  </si>
+  <si>
+    <t>2.97399388379</t>
+  </si>
+  <si>
+    <t>2.66028746177</t>
+  </si>
+  <si>
     <t>159.5</t>
   </si>
   <si>
+    <t>6.0</t>
+  </si>
+  <si>
+    <t>2.57700302115</t>
+  </si>
+  <si>
     <t>125.0</t>
   </si>
   <si>
+    <t>40.5</t>
+  </si>
+  <si>
+    <t>1.8676978852</t>
+  </si>
+  <si>
     <t>169.5</t>
   </si>
   <si>
-    <t>167.5</t>
+    <t>2.12784660767</t>
+  </si>
+  <si>
+    <t>2.79181120944</t>
+  </si>
+  <si>
+    <t>2.8048358209</t>
+  </si>
+  <si>
+    <t>3.08624477612</t>
+  </si>
+  <si>
+    <t>4.0</t>
+  </si>
+  <si>
+    <t>2.62151951952</t>
+  </si>
+  <si>
+    <t>2.43384384384</t>
   </si>
   <si>
     <t>158.5</t>
   </si>
   <si>
+    <t>9.0</t>
+  </si>
+  <si>
+    <t>2.08549253731</t>
+  </si>
+  <si>
     <t>165.0</t>
   </si>
   <si>
+    <t>5.0</t>
+  </si>
+  <si>
+    <t>170.0</t>
+  </si>
+  <si>
+    <t>2.52972941176</t>
+  </si>
+  <si>
+    <t>2.47443843844</t>
+  </si>
+  <si>
     <t>127.0</t>
   </si>
   <si>
+    <t>39.0</t>
+  </si>
+  <si>
+    <t>166.0</t>
+  </si>
+  <si>
+    <t>1.53315060241</t>
+  </si>
+  <si>
     <t>168.0</t>
   </si>
   <si>
+    <t>3.23757738095</t>
+  </si>
+  <si>
     <t>163.0</t>
   </si>
   <si>
+    <t>2.0</t>
+  </si>
+  <si>
+    <t>3.62043939394</t>
+  </si>
+  <si>
+    <t>2.87429102167</t>
+  </si>
+  <si>
     <t>156.5</t>
   </si>
   <si>
+    <t>10.5</t>
+  </si>
+  <si>
+    <t>2.13231137725</t>
+  </si>
+  <si>
     <t>148.5</t>
   </si>
   <si>
+    <t>13.0</t>
+  </si>
+  <si>
+    <t>2.13248916409</t>
+  </si>
+  <si>
     <t>143.5</t>
   </si>
   <si>
+    <t>25.5</t>
+  </si>
+  <si>
+    <t>169.0</t>
+  </si>
+  <si>
+    <t>1.71820710059</t>
+  </si>
+  <si>
     <t>171.0</t>
+  </si>
+  <si>
+    <t>3.57106725146</t>
+  </si>
+  <si>
+    <t>3.04598538012</t>
+  </si>
+  <si>
+    <t>7.0</t>
+  </si>
+  <si>
+    <t>168.5</t>
+  </si>
+  <si>
+    <t>2.49685756677</t>
+  </si>
+  <si>
+    <t>3.51022356495</t>
   </si>
 </sst>
 </file>
@@ -1718,12 +1903,19 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="3"/>
+      <sz val="9"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1751,7 +1943,7 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle builtinId="0" name="常规" xfId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
@@ -2048,11 +2240,11 @@
   </sheetPr>
   <dimension ref="A1:EL40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:142">
       <c r="B1" t="s">
@@ -10613,7 +10805,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10621,301 +10813,808 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>153</v>
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
       </c>
       <c r="C1" t="s">
         <v>544</v>
       </c>
+      <c r="D1" t="s">
+        <v>545</v>
+      </c>
+      <c r="E1" t="s">
+        <v>546</v>
+      </c>
+      <c r="F1" t="s">
+        <v>547</v>
+      </c>
+      <c r="G1" t="s">
+        <v>548</v>
+      </c>
+      <c r="H1" t="s">
+        <v>549</v>
+      </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C2" t="s">
+        <v>550</v>
+      </c>
+      <c r="D2" t="s">
+        <v>551</v>
+      </c>
+      <c r="E2" t="s">
+        <v>552</v>
+      </c>
+      <c r="F2" t="s">
+        <v>553</v>
+      </c>
+      <c r="G2" t="s"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
         <v>191</v>
       </c>
-      <c r="C2" t="s">
-        <v>545</v>
-      </c>
+      <c r="B3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C3" t="s">
+        <v>554</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>554</v>
+      </c>
+      <c r="F3" t="s">
+        <v>555</v>
+      </c>
+      <c r="G3" t="s"/>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
         <v>206</v>
       </c>
-      <c r="C3" t="s">
-        <v>546</v>
-      </c>
+      <c r="B4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C4" t="s">
+        <v>556</v>
+      </c>
+      <c r="D4" t="s">
+        <v>557</v>
+      </c>
+      <c r="E4" t="s">
+        <v>558</v>
+      </c>
+      <c r="F4" t="s">
+        <v>559</v>
+      </c>
+      <c r="G4" t="s"/>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
         <v>220</v>
       </c>
-      <c r="C4" t="s">
-        <v>547</v>
-      </c>
+      <c r="B5" t="s">
+        <v>221</v>
+      </c>
+      <c r="C5" t="s">
+        <v>560</v>
+      </c>
+      <c r="D5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>560</v>
+      </c>
+      <c r="F5" t="s">
+        <v>561</v>
+      </c>
+      <c r="G5" t="s"/>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
         <v>235</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B6" t="s">
+        <v>236</v>
+      </c>
+      <c r="C6" t="s">
         <v>4</v>
       </c>
+      <c r="D6" t="s">
+        <v>562</v>
+      </c>
+      <c r="E6" t="s">
+        <v>562</v>
+      </c>
+      <c r="F6" t="s">
+        <v>563</v>
+      </c>
+      <c r="G6" t="s"/>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
         <v>238</v>
       </c>
-      <c r="C6" t="s">
-        <v>548</v>
-      </c>
+      <c r="B7" t="s">
+        <v>239</v>
+      </c>
+      <c r="C7" t="s">
+        <v>564</v>
+      </c>
+      <c r="D7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" t="s">
+        <v>564</v>
+      </c>
+      <c r="F7" t="s">
+        <v>565</v>
+      </c>
+      <c r="G7" t="s"/>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
         <v>252</v>
       </c>
-      <c r="C7" t="s">
-        <v>549</v>
-      </c>
+      <c r="B8" t="s">
+        <v>253</v>
+      </c>
+      <c r="C8" t="s">
+        <v>566</v>
+      </c>
+      <c r="D8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" t="s">
+        <v>566</v>
+      </c>
+      <c r="F8" t="s">
+        <v>567</v>
+      </c>
+      <c r="G8" t="s"/>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
         <v>260</v>
       </c>
-      <c r="C8" t="s">
-        <v>549</v>
-      </c>
+      <c r="B9" t="s">
+        <v>261</v>
+      </c>
+      <c r="C9" t="s">
+        <v>566</v>
+      </c>
+      <c r="D9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" t="s">
+        <v>566</v>
+      </c>
+      <c r="F9" t="s">
+        <v>568</v>
+      </c>
+      <c r="G9" t="s"/>
     </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
         <v>267</v>
       </c>
-      <c r="C9" t="s">
-        <v>549</v>
-      </c>
+      <c r="B10" t="s">
+        <v>268</v>
+      </c>
+      <c r="C10" t="s">
+        <v>566</v>
+      </c>
+      <c r="D10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" t="s">
+        <v>566</v>
+      </c>
+      <c r="F10" t="s">
+        <v>569</v>
+      </c>
+      <c r="G10" t="s"/>
     </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
         <v>277</v>
       </c>
-      <c r="C10" t="s">
-        <v>549</v>
-      </c>
+      <c r="B11" t="s">
+        <v>278</v>
+      </c>
+      <c r="C11" t="s">
+        <v>566</v>
+      </c>
+      <c r="D11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" t="s">
+        <v>566</v>
+      </c>
+      <c r="F11" t="s">
+        <v>570</v>
+      </c>
+      <c r="G11" t="s"/>
     </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
         <v>285</v>
       </c>
-      <c r="C11" t="s">
+      <c r="B12" t="s">
+        <v>286</v>
+      </c>
+      <c r="C12" t="s">
+        <v>571</v>
+      </c>
+      <c r="D12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" t="s">
+        <v>571</v>
+      </c>
+      <c r="F12" t="s">
+        <v>572</v>
+      </c>
+      <c r="G12" t="s"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>295</v>
+      </c>
+      <c r="B13" t="s">
+        <v>296</v>
+      </c>
+      <c r="C13" t="s">
+        <v>573</v>
+      </c>
+      <c r="D13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" t="s">
+        <v>573</v>
+      </c>
+      <c r="F13" t="s">
+        <v>574</v>
+      </c>
+      <c r="G13" t="s"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>302</v>
+      </c>
+      <c r="B14" t="s">
+        <v>303</v>
+      </c>
+      <c r="C14" t="s">
+        <v>554</v>
+      </c>
+      <c r="D14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" t="s">
+        <v>554</v>
+      </c>
+      <c r="F14" t="s">
+        <v>575</v>
+      </c>
+      <c r="G14" t="s"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>310</v>
+      </c>
+      <c r="B15" t="s">
+        <v>311</v>
+      </c>
+      <c r="C15" t="s">
+        <v>566</v>
+      </c>
+      <c r="D15" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" t="s">
+        <v>566</v>
+      </c>
+      <c r="F15" t="s">
+        <v>576</v>
+      </c>
+      <c r="G15" t="s"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
+        <v>318</v>
+      </c>
+      <c r="B16" t="s">
+        <v>319</v>
+      </c>
+      <c r="C16" t="s">
+        <v>566</v>
+      </c>
+      <c r="D16" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" t="s">
+        <v>566</v>
+      </c>
+      <c r="F16" t="s">
+        <v>577</v>
+      </c>
+      <c r="G16" t="s"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" t="s">
+        <v>330</v>
+      </c>
+      <c r="B17" t="s">
+        <v>331</v>
+      </c>
+      <c r="C17" t="s">
+        <v>578</v>
+      </c>
+      <c r="D17" t="s">
+        <v>579</v>
+      </c>
+      <c r="E17" t="s">
+        <v>573</v>
+      </c>
+      <c r="F17" t="s">
+        <v>580</v>
+      </c>
+      <c r="G17" t="s"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" t="s">
+        <v>340</v>
+      </c>
+      <c r="B18" t="s">
+        <v>341</v>
+      </c>
+      <c r="C18" t="s">
+        <v>581</v>
+      </c>
+      <c r="D18" t="s">
+        <v>582</v>
+      </c>
+      <c r="E18" t="s">
+        <v>573</v>
+      </c>
+      <c r="F18" t="s">
+        <v>583</v>
+      </c>
+      <c r="G18" t="s"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" t="s">
+        <v>356</v>
+      </c>
+      <c r="B19" t="s">
+        <v>357</v>
+      </c>
+      <c r="C19" t="s">
+        <v>584</v>
+      </c>
+      <c r="D19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" t="s">
+        <v>584</v>
+      </c>
+      <c r="F19" t="s">
+        <v>585</v>
+      </c>
+      <c r="G19" t="s"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" t="s">
+        <v>367</v>
+      </c>
+      <c r="B20" t="s">
+        <v>368</v>
+      </c>
+      <c r="C20" t="s">
+        <v>584</v>
+      </c>
+      <c r="D20" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" t="s">
+        <v>584</v>
+      </c>
+      <c r="F20" t="s">
+        <v>586</v>
+      </c>
+      <c r="G20" t="s"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" t="s">
+        <v>376</v>
+      </c>
+      <c r="B21" t="s">
+        <v>377</v>
+      </c>
+      <c r="C21" t="s">
+        <v>558</v>
+      </c>
+      <c r="D21" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" t="s">
+        <v>558</v>
+      </c>
+      <c r="F21" t="s">
+        <v>587</v>
+      </c>
+      <c r="G21" t="s"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" t="s">
+        <v>388</v>
+      </c>
+      <c r="B22" t="s">
+        <v>389</v>
+      </c>
+      <c r="C22" t="s">
+        <v>558</v>
+      </c>
+      <c r="D22" t="s">
+        <v>4</v>
+      </c>
+      <c r="E22" t="s">
+        <v>558</v>
+      </c>
+      <c r="F22" t="s">
+        <v>588</v>
+      </c>
+      <c r="G22" t="s"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" t="s">
+        <v>396</v>
+      </c>
+      <c r="B23" t="s">
+        <v>397</v>
+      </c>
+      <c r="C23" t="s">
         <v>550</v>
       </c>
+      <c r="D23" t="s">
+        <v>589</v>
+      </c>
+      <c r="E23" t="s">
+        <v>554</v>
+      </c>
+      <c r="F23" t="s">
+        <v>590</v>
+      </c>
+      <c r="G23" t="s"/>
     </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
-        <v>295</v>
-      </c>
-      <c r="C12" t="s">
-        <v>551</v>
-      </c>
+    <row r="24" spans="1:8">
+      <c r="A24" t="s">
+        <v>409</v>
+      </c>
+      <c r="B24" t="s">
+        <v>410</v>
+      </c>
+      <c r="C24" t="s">
+        <v>564</v>
+      </c>
+      <c r="D24" t="s">
+        <v>579</v>
+      </c>
+      <c r="E24" t="s">
+        <v>554</v>
+      </c>
+      <c r="F24" t="s">
+        <v>591</v>
+      </c>
+      <c r="G24" t="s"/>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>302</v>
-      </c>
-      <c r="C13" t="s">
-        <v>545</v>
-      </c>
+    <row r="25" spans="1:8">
+      <c r="A25" t="s">
+        <v>418</v>
+      </c>
+      <c r="B25" t="s">
+        <v>419</v>
+      </c>
+      <c r="C25" t="s">
+        <v>592</v>
+      </c>
+      <c r="D25" t="s">
+        <v>593</v>
+      </c>
+      <c r="E25" t="s">
+        <v>558</v>
+      </c>
+      <c r="F25" t="s">
+        <v>594</v>
+      </c>
+      <c r="G25" t="s"/>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>310</v>
-      </c>
-      <c r="C14" t="s">
-        <v>549</v>
-      </c>
+    <row r="26" spans="1:8">
+      <c r="A26" t="s">
+        <v>431</v>
+      </c>
+      <c r="B26" t="s">
+        <v>432</v>
+      </c>
+      <c r="C26" t="s">
+        <v>595</v>
+      </c>
+      <c r="D26" t="s">
+        <v>596</v>
+      </c>
+      <c r="E26" t="s">
+        <v>597</v>
+      </c>
+      <c r="F26" t="s">
+        <v>598</v>
+      </c>
+      <c r="G26" t="s"/>
     </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>318</v>
-      </c>
-      <c r="C15" t="s">
-        <v>549</v>
-      </c>
+    <row r="27" spans="1:8">
+      <c r="A27" t="s">
+        <v>443</v>
+      </c>
+      <c r="B27" t="s">
+        <v>444</v>
+      </c>
+      <c r="C27" t="s">
+        <v>550</v>
+      </c>
+      <c r="D27" t="s">
+        <v>589</v>
+      </c>
+      <c r="E27" t="s">
+        <v>554</v>
+      </c>
+      <c r="F27" t="s">
+        <v>599</v>
+      </c>
+      <c r="G27" t="s"/>
     </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
-        <v>330</v>
-      </c>
-      <c r="C16" t="s">
-        <v>552</v>
-      </c>
+    <row r="28" spans="1:8">
+      <c r="A28" t="s">
+        <v>452</v>
+      </c>
+      <c r="B28" t="s">
+        <v>453</v>
+      </c>
+      <c r="C28" t="s">
+        <v>600</v>
+      </c>
+      <c r="D28" t="s">
+        <v>601</v>
+      </c>
+      <c r="E28" t="s">
+        <v>602</v>
+      </c>
+      <c r="F28" t="s">
+        <v>603</v>
+      </c>
+      <c r="G28" t="s"/>
     </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
-        <v>340</v>
-      </c>
-      <c r="C17" t="s">
-        <v>553</v>
-      </c>
+    <row r="29" spans="1:8">
+      <c r="A29" t="s">
+        <v>467</v>
+      </c>
+      <c r="B29" t="s">
+        <v>468</v>
+      </c>
+      <c r="C29" t="s">
+        <v>604</v>
+      </c>
+      <c r="D29" t="s">
+        <v>4</v>
+      </c>
+      <c r="E29" t="s">
+        <v>604</v>
+      </c>
+      <c r="F29" t="s">
+        <v>605</v>
+      </c>
+      <c r="G29" t="s"/>
     </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>356</v>
-      </c>
-      <c r="C18" t="s">
-        <v>554</v>
-      </c>
+    <row r="30" spans="1:8">
+      <c r="A30" t="s">
+        <v>476</v>
+      </c>
+      <c r="B30" t="s">
+        <v>477</v>
+      </c>
+      <c r="C30" t="s">
+        <v>606</v>
+      </c>
+      <c r="D30" t="s">
+        <v>607</v>
+      </c>
+      <c r="E30" t="s">
+        <v>595</v>
+      </c>
+      <c r="F30" t="s">
+        <v>608</v>
+      </c>
+      <c r="G30" t="s"/>
     </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>367</v>
-      </c>
-      <c r="C19" t="s">
-        <v>554</v>
-      </c>
+    <row r="31" spans="1:8">
+      <c r="A31" t="s">
+        <v>483</v>
+      </c>
+      <c r="B31" t="s">
+        <v>484</v>
+      </c>
+      <c r="C31" t="s">
+        <v>571</v>
+      </c>
+      <c r="D31" t="s">
+        <v>4</v>
+      </c>
+      <c r="E31" t="s">
+        <v>571</v>
+      </c>
+      <c r="F31" t="s">
+        <v>609</v>
+      </c>
+      <c r="G31" t="s"/>
     </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>376</v>
-      </c>
-      <c r="C20" t="s">
-        <v>555</v>
-      </c>
+    <row r="32" spans="1:8">
+      <c r="A32" t="s">
+        <v>491</v>
+      </c>
+      <c r="B32" t="s">
+        <v>492</v>
+      </c>
+      <c r="C32" t="s">
+        <v>610</v>
+      </c>
+      <c r="D32" t="s">
+        <v>611</v>
+      </c>
+      <c r="E32" t="s">
+        <v>560</v>
+      </c>
+      <c r="F32" t="s">
+        <v>612</v>
+      </c>
+      <c r="G32" t="s"/>
     </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
-        <v>388</v>
-      </c>
-      <c r="C21" t="s">
-        <v>555</v>
-      </c>
+    <row r="33" spans="1:8">
+      <c r="A33" t="s">
+        <v>500</v>
+      </c>
+      <c r="B33" t="s">
+        <v>501</v>
+      </c>
+      <c r="C33" t="s">
+        <v>613</v>
+      </c>
+      <c r="D33" t="s">
+        <v>614</v>
+      </c>
+      <c r="E33" t="s">
+        <v>571</v>
+      </c>
+      <c r="F33" t="s">
+        <v>615</v>
+      </c>
+      <c r="G33" t="s"/>
     </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>396</v>
-      </c>
-      <c r="C22" t="s">
-        <v>544</v>
-      </c>
+    <row r="34" spans="1:8">
+      <c r="A34" t="s">
+        <v>507</v>
+      </c>
+      <c r="B34" t="s">
+        <v>508</v>
+      </c>
+      <c r="C34" t="s">
+        <v>616</v>
+      </c>
+      <c r="D34" t="s">
+        <v>617</v>
+      </c>
+      <c r="E34" t="s">
+        <v>618</v>
+      </c>
+      <c r="F34" t="s">
+        <v>619</v>
+      </c>
+      <c r="G34" t="s"/>
     </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
-        <v>409</v>
-      </c>
-      <c r="C23" t="s">
-        <v>548</v>
-      </c>
+    <row r="35" spans="1:8">
+      <c r="A35" t="s">
+        <v>518</v>
+      </c>
+      <c r="B35" t="s">
+        <v>519</v>
+      </c>
+      <c r="C35" t="s">
+        <v>620</v>
+      </c>
+      <c r="D35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" t="s">
+        <v>620</v>
+      </c>
+      <c r="F35" t="s">
+        <v>621</v>
+      </c>
+      <c r="G35" t="s"/>
     </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
-        <v>418</v>
-      </c>
-      <c r="C24" t="s">
-        <v>556</v>
-      </c>
+    <row r="36" spans="1:8">
+      <c r="A36" t="s">
+        <v>525</v>
+      </c>
+      <c r="B36" t="s">
+        <v>526</v>
+      </c>
+      <c r="C36" t="s">
+        <v>620</v>
+      </c>
+      <c r="D36" t="s">
+        <v>4</v>
+      </c>
+      <c r="E36" t="s">
+        <v>620</v>
+      </c>
+      <c r="F36" t="s">
+        <v>622</v>
+      </c>
+      <c r="G36" t="s"/>
     </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
-        <v>431</v>
-      </c>
-      <c r="C25" t="s">
-        <v>557</v>
-      </c>
+    <row r="37" spans="1:8">
+      <c r="A37" t="s">
+        <v>532</v>
+      </c>
+      <c r="B37" t="s">
+        <v>533</v>
+      </c>
+      <c r="C37" t="s">
+        <v>571</v>
+      </c>
+      <c r="D37" t="s">
+        <v>623</v>
+      </c>
+      <c r="E37" t="s">
+        <v>624</v>
+      </c>
+      <c r="F37" t="s">
+        <v>625</v>
+      </c>
+      <c r="G37" t="s"/>
     </row>
-    <row r="26" spans="1:3">
-      <c r="A26" t="s">
-        <v>443</v>
-      </c>
-      <c r="C26" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" t="s">
-        <v>452</v>
-      </c>
-      <c r="C27" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="s">
-        <v>467</v>
-      </c>
-      <c r="C28" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" t="s">
-        <v>476</v>
-      </c>
-      <c r="C29" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" t="s">
-        <v>483</v>
-      </c>
-      <c r="C30" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" t="s">
-        <v>491</v>
-      </c>
-      <c r="C31" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" t="s">
-        <v>500</v>
-      </c>
-      <c r="C32" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" t="s">
-        <v>507</v>
-      </c>
-      <c r="C33" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" t="s">
-        <v>518</v>
-      </c>
-      <c r="C34" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" t="s">
-        <v>525</v>
-      </c>
-      <c r="C35" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" t="s">
-        <v>532</v>
-      </c>
-      <c r="C36" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" t="s">
+    <row r="38" spans="1:8">
+      <c r="A38" t="s">
         <v>541</v>
       </c>
-      <c r="C37" t="s">
-        <v>551</v>
-      </c>
+      <c r="B38" t="s">
+        <v>542</v>
+      </c>
+      <c r="C38" t="s">
+        <v>573</v>
+      </c>
+      <c r="D38" t="s">
+        <v>4</v>
+      </c>
+      <c r="E38" t="s">
+        <v>573</v>
+      </c>
+      <c r="F38" t="s">
+        <v>626</v>
+      </c>
+      <c r="G38" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/gradeSort/cj.xlsx
+++ b/gradeSort/cj.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\GitHub\Python\gradeSort\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="13440" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CJ" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sheet_z" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="CJ" sheetId="1" r:id="rId1"/>
+    <sheet name="sheet_z" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="627">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3124" uniqueCount="628">
   <si>
     <t>学分</t>
   </si>
@@ -1896,32 +1901,35 @@
   </si>
   <si>
     <t>3.51022356495</t>
+  </si>
+  <si>
+    <t>大学生创业基础(尔雅)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <family val="3"/>
-      <sz val="9"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -1937,15 +1945,24 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="常规" xfId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -2233,20 +2250,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:EL40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:EK39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:142">
+    <row r="1" spans="1:141" x14ac:dyDescent="0.15">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -2668,7 +2679,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:142">
+    <row r="2" spans="1:141" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -3093,7 +3104,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="3" spans="1:142">
+    <row r="3" spans="1:141" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>153</v>
       </c>
@@ -3314,7 +3325,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="4" spans="1:142">
+    <row r="4" spans="1:141" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>191</v>
       </c>
@@ -3529,7 +3540,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="5" spans="1:142">
+    <row r="5" spans="1:141" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>206</v>
       </c>
@@ -3747,7 +3758,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="6" spans="1:142">
+    <row r="6" spans="1:141" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>220</v>
       </c>
@@ -3962,7 +3973,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="7" spans="1:142">
+    <row r="7" spans="1:141" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>235</v>
       </c>
@@ -3973,7 +3984,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="8" spans="1:142">
+    <row r="8" spans="1:141" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>238</v>
       </c>
@@ -4179,7 +4190,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="9" spans="1:142">
+    <row r="9" spans="1:141" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>252</v>
       </c>
@@ -4388,7 +4399,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="10" spans="1:142">
+    <row r="10" spans="1:141" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>260</v>
       </c>
@@ -4597,7 +4608,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="11" spans="1:142">
+    <row r="11" spans="1:141" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>267</v>
       </c>
@@ -4806,7 +4817,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="12" spans="1:142">
+    <row r="12" spans="1:141" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>277</v>
       </c>
@@ -5015,7 +5026,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="13" spans="1:142">
+    <row r="13" spans="1:141" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>285</v>
       </c>
@@ -5221,7 +5232,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="14" spans="1:142">
+    <row r="14" spans="1:141" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>295</v>
       </c>
@@ -5433,7 +5444,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="15" spans="1:142">
+    <row r="15" spans="1:141" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>302</v>
       </c>
@@ -5645,7 +5656,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="16" spans="1:142">
+    <row r="16" spans="1:141" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>310</v>
       </c>
@@ -5854,7 +5865,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="17" spans="1:142">
+    <row r="17" spans="1:139" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>318</v>
       </c>
@@ -6069,7 +6080,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="18" spans="1:142">
+    <row r="18" spans="1:139" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>330</v>
       </c>
@@ -6281,7 +6292,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="19" spans="1:142">
+    <row r="19" spans="1:139" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>340</v>
       </c>
@@ -6493,7 +6504,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="20" spans="1:142">
+    <row r="20" spans="1:139" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>356</v>
       </c>
@@ -6711,7 +6722,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="21" spans="1:142">
+    <row r="21" spans="1:139" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>367</v>
       </c>
@@ -6929,7 +6940,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="22" spans="1:142">
+    <row r="22" spans="1:139" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>376</v>
       </c>
@@ -7144,7 +7155,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="23" spans="1:142">
+    <row r="23" spans="1:139" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>388</v>
       </c>
@@ -7359,7 +7370,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="24" spans="1:142">
+    <row r="24" spans="1:139" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>396</v>
       </c>
@@ -7574,7 +7585,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="25" spans="1:142">
+    <row r="25" spans="1:139" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>409</v>
       </c>
@@ -7789,7 +7800,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="26" spans="1:142">
+    <row r="26" spans="1:139" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>418</v>
       </c>
@@ -8004,7 +8015,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="27" spans="1:142">
+    <row r="27" spans="1:139" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>431</v>
       </c>
@@ -8222,7 +8233,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="28" spans="1:142">
+    <row r="28" spans="1:139" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>443</v>
       </c>
@@ -8437,7 +8448,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="29" spans="1:142">
+    <row r="29" spans="1:139" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>452</v>
       </c>
@@ -8652,7 +8663,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="30" spans="1:142">
+    <row r="30" spans="1:139" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>467</v>
       </c>
@@ -8867,7 +8878,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="31" spans="1:142">
+    <row r="31" spans="1:139" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>476</v>
       </c>
@@ -9082,7 +9093,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="32" spans="1:142">
+    <row r="32" spans="1:139" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>483</v>
       </c>
@@ -9291,7 +9302,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="33" spans="1:142">
+    <row r="33" spans="1:141" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>491</v>
       </c>
@@ -9506,7 +9517,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="34" spans="1:142">
+    <row r="34" spans="1:141" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>500</v>
       </c>
@@ -9715,7 +9726,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="35" spans="1:142">
+    <row r="35" spans="1:141" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>507</v>
       </c>
@@ -9930,7 +9941,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="36" spans="1:142">
+    <row r="36" spans="1:141" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>518</v>
       </c>
@@ -10148,7 +10159,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="37" spans="1:142">
+    <row r="37" spans="1:141" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>525</v>
       </c>
@@ -10366,7 +10377,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="38" spans="1:142">
+    <row r="38" spans="1:141" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>532</v>
       </c>
@@ -10581,7 +10592,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="39" spans="1:142">
+    <row r="39" spans="1:141" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>541</v>
       </c>
@@ -10793,27 +10804,44 @@
         <v>316</v>
       </c>
     </row>
-    <row r="40" spans="1:142"/>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="31.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="34" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="31.875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="29.875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="23.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -10839,7 +10867,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>153</v>
       </c>
@@ -10858,9 +10886,17 @@
       <c r="F2" t="s">
         <v>553</v>
       </c>
-      <c r="G2" t="s"/>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" t="s">
+        <v>65</v>
+      </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>191</v>
       </c>
@@ -10879,9 +10915,8 @@
       <c r="F3" t="s">
         <v>555</v>
       </c>
-      <c r="G3" t="s"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>206</v>
       </c>
@@ -10900,9 +10935,29 @@
       <c r="F4" t="s">
         <v>559</v>
       </c>
-      <c r="G4" t="s"/>
+      <c r="H4" t="s">
+        <v>78</v>
+      </c>
+      <c r="I4" t="s">
+        <v>84</v>
+      </c>
+      <c r="J4" t="s">
+        <v>627</v>
+      </c>
+      <c r="K4" t="s">
+        <v>101</v>
+      </c>
+      <c r="L4" t="s">
+        <v>102</v>
+      </c>
+      <c r="M4" t="s">
+        <v>103</v>
+      </c>
+      <c r="N4" t="s">
+        <v>104</v>
+      </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>220</v>
       </c>
@@ -10921,9 +10976,8 @@
       <c r="F5" t="s">
         <v>561</v>
       </c>
-      <c r="G5" t="s"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>235</v>
       </c>
@@ -10942,9 +10996,11 @@
       <c r="F6" t="s">
         <v>563</v>
       </c>
-      <c r="G6" t="s"/>
+      <c r="H6" t="s">
+        <v>86</v>
+      </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>238</v>
       </c>
@@ -10963,9 +11019,8 @@
       <c r="F7" t="s">
         <v>565</v>
       </c>
-      <c r="G7" t="s"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>252</v>
       </c>
@@ -10984,9 +11039,8 @@
       <c r="F8" t="s">
         <v>567</v>
       </c>
-      <c r="G8" t="s"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>260</v>
       </c>
@@ -11005,9 +11059,8 @@
       <c r="F9" t="s">
         <v>568</v>
       </c>
-      <c r="G9" t="s"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>267</v>
       </c>
@@ -11026,9 +11079,8 @@
       <c r="F10" t="s">
         <v>569</v>
       </c>
-      <c r="G10" t="s"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>277</v>
       </c>
@@ -11047,9 +11099,8 @@
       <c r="F11" t="s">
         <v>570</v>
       </c>
-      <c r="G11" t="s"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>285</v>
       </c>
@@ -11068,9 +11119,8 @@
       <c r="F12" t="s">
         <v>572</v>
       </c>
-      <c r="G12" t="s"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>295</v>
       </c>
@@ -11089,9 +11139,8 @@
       <c r="F13" t="s">
         <v>574</v>
       </c>
-      <c r="G13" t="s"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>302</v>
       </c>
@@ -11110,9 +11159,8 @@
       <c r="F14" t="s">
         <v>575</v>
       </c>
-      <c r="G14" t="s"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>310</v>
       </c>
@@ -11131,9 +11179,8 @@
       <c r="F15" t="s">
         <v>576</v>
       </c>
-      <c r="G15" t="s"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>318</v>
       </c>
@@ -11152,9 +11199,8 @@
       <c r="F16" t="s">
         <v>577</v>
       </c>
-      <c r="G16" t="s"/>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>330</v>
       </c>
@@ -11173,9 +11219,14 @@
       <c r="F17" t="s">
         <v>580</v>
       </c>
-      <c r="G17" t="s"/>
+      <c r="H17" t="s">
+        <v>78</v>
+      </c>
+      <c r="I17" t="s">
+        <v>81</v>
+      </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>340</v>
       </c>
@@ -11194,9 +11245,47 @@
       <c r="F18" t="s">
         <v>583</v>
       </c>
-      <c r="G18" t="s"/>
+      <c r="H18" t="s">
+        <v>42</v>
+      </c>
+      <c r="I18" t="s">
+        <v>43</v>
+      </c>
+      <c r="J18" t="s">
+        <v>44</v>
+      </c>
+      <c r="K18" t="s">
+        <v>52</v>
+      </c>
+      <c r="L18" t="s">
+        <v>56</v>
+      </c>
+      <c r="M18" t="s">
+        <v>58</v>
+      </c>
+      <c r="N18" t="s">
+        <v>61</v>
+      </c>
+      <c r="O18" t="s">
+        <v>62</v>
+      </c>
+      <c r="P18" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>65</v>
+      </c>
+      <c r="R18" t="s">
+        <v>69</v>
+      </c>
+      <c r="S18" t="s">
+        <v>77</v>
+      </c>
+      <c r="T18" t="s">
+        <v>88</v>
+      </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>356</v>
       </c>
@@ -11215,9 +11304,8 @@
       <c r="F19" t="s">
         <v>585</v>
       </c>
-      <c r="G19" t="s"/>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>367</v>
       </c>
@@ -11236,9 +11324,8 @@
       <c r="F20" t="s">
         <v>586</v>
       </c>
-      <c r="G20" t="s"/>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>376</v>
       </c>
@@ -11257,9 +11344,8 @@
       <c r="F21" t="s">
         <v>587</v>
       </c>
-      <c r="G21" t="s"/>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>388</v>
       </c>
@@ -11278,9 +11364,8 @@
       <c r="F22" t="s">
         <v>588</v>
       </c>
-      <c r="G22" t="s"/>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>396</v>
       </c>
@@ -11299,9 +11384,14 @@
       <c r="F23" t="s">
         <v>590</v>
       </c>
-      <c r="G23" t="s"/>
+      <c r="H23" t="s">
+        <v>68</v>
+      </c>
+      <c r="I23" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>409</v>
       </c>
@@ -11320,9 +11410,14 @@
       <c r="F24" t="s">
         <v>591</v>
       </c>
-      <c r="G24" t="s"/>
+      <c r="H24" t="s">
+        <v>78</v>
+      </c>
+      <c r="I24" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>418</v>
       </c>
@@ -11341,9 +11436,17 @@
       <c r="F25" t="s">
         <v>594</v>
       </c>
-      <c r="G25" t="s"/>
+      <c r="H25" t="s">
+        <v>78</v>
+      </c>
+      <c r="I25" t="s">
+        <v>81</v>
+      </c>
+      <c r="J25" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>431</v>
       </c>
@@ -11362,9 +11465,14 @@
       <c r="F26" t="s">
         <v>598</v>
       </c>
-      <c r="G26" t="s"/>
+      <c r="H26" t="s">
+        <v>77</v>
+      </c>
+      <c r="I26" t="s">
+        <v>78</v>
+      </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>443</v>
       </c>
@@ -11383,9 +11491,14 @@
       <c r="F27" t="s">
         <v>599</v>
       </c>
-      <c r="G27" t="s"/>
+      <c r="H27" t="s">
+        <v>118</v>
+      </c>
+      <c r="I27" t="s">
+        <v>125</v>
+      </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>452</v>
       </c>
@@ -11404,9 +11517,47 @@
       <c r="F28" t="s">
         <v>603</v>
       </c>
-      <c r="G28" t="s"/>
+      <c r="H28" t="s">
+        <v>44</v>
+      </c>
+      <c r="I28" t="s">
+        <v>53</v>
+      </c>
+      <c r="J28" t="s">
+        <v>56</v>
+      </c>
+      <c r="K28" t="s">
+        <v>58</v>
+      </c>
+      <c r="L28" t="s">
+        <v>59</v>
+      </c>
+      <c r="M28" t="s">
+        <v>62</v>
+      </c>
+      <c r="N28" t="s">
+        <v>63</v>
+      </c>
+      <c r="O28" t="s">
+        <v>72</v>
+      </c>
+      <c r="P28" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>78</v>
+      </c>
+      <c r="R28" t="s">
+        <v>81</v>
+      </c>
+      <c r="S28" t="s">
+        <v>129</v>
+      </c>
+      <c r="T28" t="s">
+        <v>142</v>
+      </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>467</v>
       </c>
@@ -11425,9 +11576,8 @@
       <c r="F29" t="s">
         <v>605</v>
       </c>
-      <c r="G29" t="s"/>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>476</v>
       </c>
@@ -11446,9 +11596,11 @@
       <c r="F30" t="s">
         <v>608</v>
       </c>
-      <c r="G30" t="s"/>
+      <c r="H30" t="s">
+        <v>145</v>
+      </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>483</v>
       </c>
@@ -11467,9 +11619,8 @@
       <c r="F31" t="s">
         <v>609</v>
       </c>
-      <c r="G31" t="s"/>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>491</v>
       </c>
@@ -11488,9 +11639,20 @@
       <c r="F32" t="s">
         <v>612</v>
       </c>
-      <c r="G32" t="s"/>
+      <c r="H32" t="s">
+        <v>43</v>
+      </c>
+      <c r="I32" t="s">
+        <v>44</v>
+      </c>
+      <c r="J32" t="s">
+        <v>76</v>
+      </c>
+      <c r="K32" t="s">
+        <v>109</v>
+      </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>500</v>
       </c>
@@ -11509,9 +11671,17 @@
       <c r="F33" t="s">
         <v>615</v>
       </c>
-      <c r="G33" t="s"/>
+      <c r="H33" t="s">
+        <v>44</v>
+      </c>
+      <c r="I33" t="s">
+        <v>63</v>
+      </c>
+      <c r="J33" t="s">
+        <v>65</v>
+      </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>507</v>
       </c>
@@ -11530,9 +11700,38 @@
       <c r="F34" t="s">
         <v>619</v>
       </c>
-      <c r="G34" t="s"/>
+      <c r="H34" t="s">
+        <v>43</v>
+      </c>
+      <c r="I34" t="s">
+        <v>47</v>
+      </c>
+      <c r="J34" t="s">
+        <v>56</v>
+      </c>
+      <c r="K34" t="s">
+        <v>58</v>
+      </c>
+      <c r="L34" t="s">
+        <v>61</v>
+      </c>
+      <c r="M34" t="s">
+        <v>78</v>
+      </c>
+      <c r="N34" t="s">
+        <v>90</v>
+      </c>
+      <c r="O34" t="s">
+        <v>92</v>
+      </c>
+      <c r="P34" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>128</v>
+      </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>518</v>
       </c>
@@ -11551,9 +11750,8 @@
       <c r="F35" t="s">
         <v>621</v>
       </c>
-      <c r="G35" t="s"/>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>525</v>
       </c>
@@ -11572,9 +11770,8 @@
       <c r="F36" t="s">
         <v>622</v>
       </c>
-      <c r="G36" t="s"/>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>532</v>
       </c>
@@ -11593,9 +11790,17 @@
       <c r="F37" t="s">
         <v>625</v>
       </c>
-      <c r="G37" t="s"/>
+      <c r="H37" t="s">
+        <v>43</v>
+      </c>
+      <c r="I37" t="s">
+        <v>76</v>
+      </c>
+      <c r="J37" t="s">
+        <v>103</v>
+      </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>541</v>
       </c>
@@ -11614,9 +11819,10 @@
       <c r="F38" t="s">
         <v>626</v>
       </c>
-      <c r="G38" t="s"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/gradeSort/cj.xlsx
+++ b/gradeSort/cj.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3124" uniqueCount="628">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3124" uniqueCount="627">
   <si>
     <t>学分</t>
   </si>
@@ -1901,10 +1901,6 @@
   </si>
   <si>
     <t>3.51022356495</t>
-  </si>
-  <si>
-    <t>大学生创业基础(尔雅)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2253,7 +2249,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:EK39"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="EA1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -10807,7 +10803,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
@@ -10816,7 +10811,7 @@
   <dimension ref="A1:T38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection sqref="A1:T38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -10942,7 +10937,7 @@
         <v>84</v>
       </c>
       <c r="J4" t="s">
-        <v>627</v>
+        <v>100</v>
       </c>
       <c r="K4" t="s">
         <v>101</v>

--- a/gradeSort/cj.xlsx
+++ b/gradeSort/cj.xlsx
@@ -1,26 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\GitHub\Python\gradeSort\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="13440" activeTab="1"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="CJ" sheetId="1" r:id="rId1"/>
-    <sheet name="sheet_z" sheetId="2" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CJ" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sheet_z" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3124" uniqueCount="627">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="627">
   <si>
     <t>学分</t>
   </si>
@@ -910,7 +906,7 @@
     <t>2015302869</t>
   </si>
   <si>
-    <t>刘</t>
+    <t>刘是是</t>
   </si>
   <si>
     <t>98.72</t>
@@ -1906,26 +1902,20 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -1941,24 +1931,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -2246,14 +2227,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:EK39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:EL40"/>
   <sheetViews>
-    <sheetView topLeftCell="EA1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:141" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:142">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -2675,7 +2662,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:141" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:142">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -3100,7 +3087,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="3" spans="1:141" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:142">
       <c r="A3" t="s">
         <v>153</v>
       </c>
@@ -3321,7 +3308,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="4" spans="1:141" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:142">
       <c r="A4" t="s">
         <v>191</v>
       </c>
@@ -3536,7 +3523,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="5" spans="1:141" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:142">
       <c r="A5" t="s">
         <v>206</v>
       </c>
@@ -3754,7 +3741,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="6" spans="1:141" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:142">
       <c r="A6" t="s">
         <v>220</v>
       </c>
@@ -3969,7 +3956,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="7" spans="1:141" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:142">
       <c r="A7" t="s">
         <v>235</v>
       </c>
@@ -3980,7 +3967,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="8" spans="1:141" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:142">
       <c r="A8" t="s">
         <v>238</v>
       </c>
@@ -4186,7 +4173,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="9" spans="1:141" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:142">
       <c r="A9" t="s">
         <v>252</v>
       </c>
@@ -4395,7 +4382,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="10" spans="1:141" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:142">
       <c r="A10" t="s">
         <v>260</v>
       </c>
@@ -4604,7 +4591,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="11" spans="1:141" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:142">
       <c r="A11" t="s">
         <v>267</v>
       </c>
@@ -4813,7 +4800,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="12" spans="1:141" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:142">
       <c r="A12" t="s">
         <v>277</v>
       </c>
@@ -5022,7 +5009,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="13" spans="1:141" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:142">
       <c r="A13" t="s">
         <v>285</v>
       </c>
@@ -5228,7 +5215,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="14" spans="1:141" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:142">
       <c r="A14" t="s">
         <v>295</v>
       </c>
@@ -5440,7 +5427,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="15" spans="1:141" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:142">
       <c r="A15" t="s">
         <v>302</v>
       </c>
@@ -5652,7 +5639,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="16" spans="1:141" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:142">
       <c r="A16" t="s">
         <v>310</v>
       </c>
@@ -5861,7 +5848,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="17" spans="1:139" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:142">
       <c r="A17" t="s">
         <v>318</v>
       </c>
@@ -6076,7 +6063,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="18" spans="1:139" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:142">
       <c r="A18" t="s">
         <v>330</v>
       </c>
@@ -6288,7 +6275,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="19" spans="1:139" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:142">
       <c r="A19" t="s">
         <v>340</v>
       </c>
@@ -6500,7 +6487,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="20" spans="1:139" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:142">
       <c r="A20" t="s">
         <v>356</v>
       </c>
@@ -6718,7 +6705,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="21" spans="1:139" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:142">
       <c r="A21" t="s">
         <v>367</v>
       </c>
@@ -6936,7 +6923,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="22" spans="1:139" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:142">
       <c r="A22" t="s">
         <v>376</v>
       </c>
@@ -7151,7 +7138,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="23" spans="1:139" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:142">
       <c r="A23" t="s">
         <v>388</v>
       </c>
@@ -7366,7 +7353,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="24" spans="1:139" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:142">
       <c r="A24" t="s">
         <v>396</v>
       </c>
@@ -7581,7 +7568,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="25" spans="1:139" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:142">
       <c r="A25" t="s">
         <v>409</v>
       </c>
@@ -7796,7 +7783,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="26" spans="1:139" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:142">
       <c r="A26" t="s">
         <v>418</v>
       </c>
@@ -8011,7 +7998,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="27" spans="1:139" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:142">
       <c r="A27" t="s">
         <v>431</v>
       </c>
@@ -8229,7 +8216,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="28" spans="1:139" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:142">
       <c r="A28" t="s">
         <v>443</v>
       </c>
@@ -8444,7 +8431,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="29" spans="1:139" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:142">
       <c r="A29" t="s">
         <v>452</v>
       </c>
@@ -8659,7 +8646,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="30" spans="1:139" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:142">
       <c r="A30" t="s">
         <v>467</v>
       </c>
@@ -8874,7 +8861,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="31" spans="1:139" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:142">
       <c r="A31" t="s">
         <v>476</v>
       </c>
@@ -9089,7 +9076,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="32" spans="1:139" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:142">
       <c r="A32" t="s">
         <v>483</v>
       </c>
@@ -9298,7 +9285,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="33" spans="1:141" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:142">
       <c r="A33" t="s">
         <v>491</v>
       </c>
@@ -9513,7 +9500,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="34" spans="1:141" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:142">
       <c r="A34" t="s">
         <v>500</v>
       </c>
@@ -9722,7 +9709,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="35" spans="1:141" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:142">
       <c r="A35" t="s">
         <v>507</v>
       </c>
@@ -9937,7 +9924,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="36" spans="1:141" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:142">
       <c r="A36" t="s">
         <v>518</v>
       </c>
@@ -10155,7 +10142,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="37" spans="1:141" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:142">
       <c r="A37" t="s">
         <v>525</v>
       </c>
@@ -10373,7 +10360,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="38" spans="1:141" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:142">
       <c r="A38" t="s">
         <v>532</v>
       </c>
@@ -10588,7 +10575,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="39" spans="1:141" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:142">
       <c r="A39" t="s">
         <v>541</v>
       </c>
@@ -10800,43 +10787,27 @@
         <v>316</v>
       </c>
     </row>
+    <row r="40" spans="1:142"/>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:T38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:T38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="31.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="31.875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="34" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="31.875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="20.625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="29.875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="23.5" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:20">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -10862,7 +10833,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:20">
       <c r="A2" t="s">
         <v>153</v>
       </c>
@@ -10881,6 +10852,7 @@
       <c r="F2" t="s">
         <v>553</v>
       </c>
+      <c r="G2" t="s"/>
       <c r="H2" t="s">
         <v>15</v>
       </c>
@@ -10891,7 +10863,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:20">
       <c r="A3" t="s">
         <v>191</v>
       </c>
@@ -10910,8 +10882,9 @@
       <c r="F3" t="s">
         <v>555</v>
       </c>
+      <c r="G3" t="s"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:20">
       <c r="A4" t="s">
         <v>206</v>
       </c>
@@ -10930,6 +10903,7 @@
       <c r="F4" t="s">
         <v>559</v>
       </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
         <v>78</v>
       </c>
@@ -10952,7 +10926,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:20">
       <c r="A5" t="s">
         <v>220</v>
       </c>
@@ -10971,8 +10945,9 @@
       <c r="F5" t="s">
         <v>561</v>
       </c>
+      <c r="G5" t="s"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:20">
       <c r="A6" t="s">
         <v>235</v>
       </c>
@@ -10991,11 +10966,12 @@
       <c r="F6" t="s">
         <v>563</v>
       </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:20">
       <c r="A7" t="s">
         <v>238</v>
       </c>
@@ -11014,8 +10990,9 @@
       <c r="F7" t="s">
         <v>565</v>
       </c>
+      <c r="G7" t="s"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:20">
       <c r="A8" t="s">
         <v>252</v>
       </c>
@@ -11034,8 +11011,9 @@
       <c r="F8" t="s">
         <v>567</v>
       </c>
+      <c r="G8" t="s"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:20">
       <c r="A9" t="s">
         <v>260</v>
       </c>
@@ -11054,8 +11032,9 @@
       <c r="F9" t="s">
         <v>568</v>
       </c>
+      <c r="G9" t="s"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:20">
       <c r="A10" t="s">
         <v>267</v>
       </c>
@@ -11074,8 +11053,9 @@
       <c r="F10" t="s">
         <v>569</v>
       </c>
+      <c r="G10" t="s"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:20">
       <c r="A11" t="s">
         <v>277</v>
       </c>
@@ -11094,8 +11074,9 @@
       <c r="F11" t="s">
         <v>570</v>
       </c>
+      <c r="G11" t="s"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:20">
       <c r="A12" t="s">
         <v>285</v>
       </c>
@@ -11114,8 +11095,9 @@
       <c r="F12" t="s">
         <v>572</v>
       </c>
+      <c r="G12" t="s"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:20">
       <c r="A13" t="s">
         <v>295</v>
       </c>
@@ -11134,8 +11116,9 @@
       <c r="F13" t="s">
         <v>574</v>
       </c>
+      <c r="G13" t="s"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:20">
       <c r="A14" t="s">
         <v>302</v>
       </c>
@@ -11154,8 +11137,9 @@
       <c r="F14" t="s">
         <v>575</v>
       </c>
+      <c r="G14" t="s"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:20">
       <c r="A15" t="s">
         <v>310</v>
       </c>
@@ -11174,8 +11158,9 @@
       <c r="F15" t="s">
         <v>576</v>
       </c>
+      <c r="G15" t="s"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:20">
       <c r="A16" t="s">
         <v>318</v>
       </c>
@@ -11194,8 +11179,9 @@
       <c r="F16" t="s">
         <v>577</v>
       </c>
+      <c r="G16" t="s"/>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:20">
       <c r="A17" t="s">
         <v>330</v>
       </c>
@@ -11214,6 +11200,7 @@
       <c r="F17" t="s">
         <v>580</v>
       </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
         <v>78</v>
       </c>
@@ -11221,7 +11208,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:20">
       <c r="A18" t="s">
         <v>340</v>
       </c>
@@ -11240,6 +11227,7 @@
       <c r="F18" t="s">
         <v>583</v>
       </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
         <v>42</v>
       </c>
@@ -11280,7 +11268,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:20">
       <c r="A19" t="s">
         <v>356</v>
       </c>
@@ -11299,8 +11287,9 @@
       <c r="F19" t="s">
         <v>585</v>
       </c>
+      <c r="G19" t="s"/>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:20">
       <c r="A20" t="s">
         <v>367</v>
       </c>
@@ -11319,8 +11308,9 @@
       <c r="F20" t="s">
         <v>586</v>
       </c>
+      <c r="G20" t="s"/>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:20">
       <c r="A21" t="s">
         <v>376</v>
       </c>
@@ -11339,8 +11329,9 @@
       <c r="F21" t="s">
         <v>587</v>
       </c>
+      <c r="G21" t="s"/>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:20">
       <c r="A22" t="s">
         <v>388</v>
       </c>
@@ -11359,8 +11350,9 @@
       <c r="F22" t="s">
         <v>588</v>
       </c>
+      <c r="G22" t="s"/>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:20">
       <c r="A23" t="s">
         <v>396</v>
       </c>
@@ -11379,6 +11371,7 @@
       <c r="F23" t="s">
         <v>590</v>
       </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
         <v>68</v>
       </c>
@@ -11386,7 +11379,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:20">
       <c r="A24" t="s">
         <v>409</v>
       </c>
@@ -11405,6 +11398,7 @@
       <c r="F24" t="s">
         <v>591</v>
       </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
         <v>78</v>
       </c>
@@ -11412,7 +11406,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:20">
       <c r="A25" t="s">
         <v>418</v>
       </c>
@@ -11431,6 +11425,7 @@
       <c r="F25" t="s">
         <v>594</v>
       </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
         <v>78</v>
       </c>
@@ -11441,7 +11436,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:20">
       <c r="A26" t="s">
         <v>431</v>
       </c>
@@ -11460,6 +11455,7 @@
       <c r="F26" t="s">
         <v>598</v>
       </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
         <v>77</v>
       </c>
@@ -11467,7 +11463,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:20">
       <c r="A27" t="s">
         <v>443</v>
       </c>
@@ -11486,6 +11482,7 @@
       <c r="F27" t="s">
         <v>599</v>
       </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
         <v>118</v>
       </c>
@@ -11493,7 +11490,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:20">
       <c r="A28" t="s">
         <v>452</v>
       </c>
@@ -11512,6 +11509,7 @@
       <c r="F28" t="s">
         <v>603</v>
       </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
         <v>44</v>
       </c>
@@ -11552,7 +11550,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:20">
       <c r="A29" t="s">
         <v>467</v>
       </c>
@@ -11571,8 +11569,9 @@
       <c r="F29" t="s">
         <v>605</v>
       </c>
+      <c r="G29" t="s"/>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:20">
       <c r="A30" t="s">
         <v>476</v>
       </c>
@@ -11591,11 +11590,12 @@
       <c r="F30" t="s">
         <v>608</v>
       </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:20">
       <c r="A31" t="s">
         <v>483</v>
       </c>
@@ -11614,8 +11614,9 @@
       <c r="F31" t="s">
         <v>609</v>
       </c>
+      <c r="G31" t="s"/>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:20">
       <c r="A32" t="s">
         <v>491</v>
       </c>
@@ -11634,6 +11635,7 @@
       <c r="F32" t="s">
         <v>612</v>
       </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
         <v>43</v>
       </c>
@@ -11647,7 +11649,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:20">
       <c r="A33" t="s">
         <v>500</v>
       </c>
@@ -11666,6 +11668,7 @@
       <c r="F33" t="s">
         <v>615</v>
       </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
         <v>44</v>
       </c>
@@ -11676,7 +11679,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:20">
       <c r="A34" t="s">
         <v>507</v>
       </c>
@@ -11695,6 +11698,7 @@
       <c r="F34" t="s">
         <v>619</v>
       </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
         <v>43</v>
       </c>
@@ -11726,7 +11730,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:20">
       <c r="A35" t="s">
         <v>518</v>
       </c>
@@ -11745,8 +11749,9 @@
       <c r="F35" t="s">
         <v>621</v>
       </c>
+      <c r="G35" t="s"/>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:20">
       <c r="A36" t="s">
         <v>525</v>
       </c>
@@ -11765,8 +11770,9 @@
       <c r="F36" t="s">
         <v>622</v>
       </c>
+      <c r="G36" t="s"/>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:20">
       <c r="A37" t="s">
         <v>532</v>
       </c>
@@ -11785,6 +11791,7 @@
       <c r="F37" t="s">
         <v>625</v>
       </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
         <v>43</v>
       </c>
@@ -11795,7 +11802,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:20">
       <c r="A38" t="s">
         <v>541</v>
       </c>
@@ -11814,10 +11821,9 @@
       <c r="F38" t="s">
         <v>626</v>
       </c>
+      <c r="G38" t="s"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>